--- a/biology/Botanique/Harumi/Harumi.xlsx
+++ b/biology/Botanique/Harumi/Harumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harumi est un tangor japonais obtenu en 1996 à Okitsu (Préfecture de Kōchi) et enregistré en mars 1999. C'est un hybride du tangor Kiyomi et de Ponkan F-2432. 
-Il bénéficie d'une protection juridique jusqu'au 25 novembre 2024 ce qui en interdit la diffusion hors du Japon jusqu'à cette date[1], il est toutefois présent en Chine qui plus est signalé (2017) porteur du Citrus leaf blotch virus (CLBV)[2].
+Il bénéficie d'une protection juridique jusqu'au 25 novembre 2024 ce qui en interdit la diffusion hors du Japon jusqu'à cette date, il est toutefois présent en Chine qui plus est signalé (2017) porteur du Citrus leaf blotch virus (CLBV).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">はるみ (harumi) est le nom commercial adopté pour la souche Agrumes Okitsu n°44.
 </t>
@@ -543,15 +557,14 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hybridation de Kiyomi par différents cultivars de ponkan a donné les variétés cultivées: 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'hybridation de Kiyomi par différents cultivars de ponkan a donné les variétés cultivées: 
 Shiranui (les dekopon),
 Youkou (1995) qui sera lui même hybridé avec EO21 pour donner 西南のひかり (Seinan'nohikari)  Seinan no hikari (2007) Lumière du sud-ouest
-et Harumi (1996), qui hybridé avec O46 donne Asumi.
-Descendance
-あすみ (Asumi) est une hybridation de C. Okitsu n°046 (« Sweet Spring » x orange « Trovita ») pollinisé par harumi obtenue en 1992[3] et enregistrée le 30 septembre 2014[4]. Il est peu sensible à l'alternance mais épineux. Le fruit aplati pèse 170 g, la peau est fine environ 2,3 mm et la pulpe très sucrée 15 °Brix et l'acidité faible 1,15 g/100 ml[5]. Maturité février. Le fruit est signalé riche en β-cryptoxanthine (proche du carotène)[6].
-</t>
+et Harumi (1996), qui hybridé avec O46 donne Asumi.</t>
         </is>
       </c>
     </row>
@@ -576,19 +589,163 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Descendance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">あすみ (Asumi) est une hybridation de C. Okitsu n°046 (« Sweet Spring » x orange « Trovita ») pollinisé par harumi obtenue en 1992 et enregistrée le 30 septembre 2014. Il est peu sensible à l'alternance mais épineux. Le fruit aplati pèse 170 g, la peau est fine environ 2,3 mm et la pulpe très sucrée 15 °Brix et l'acidité faible 1,15 g/100 ml. Maturité février. Le fruit est signalé riche en β-cryptoxanthine (proche du carotène).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Harumi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harumi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maturité du fruit d'Harumi est janvier (début de saison, la récolte vise à éviter les dégâts des gels de février car les basses températures affectent le niveau de sucre[7], il est stocké pour une commercialisation différée[8]), il est commercialisé jusqu'en mars[9] (autrement dit plus tôt que le dekopon son frère) et son poids 180 à 200 g, les fruits moyen on l'optimum sucre/acide l'éclaircissage supprime les fruits petits et les fruits gros[10]. Il a l'apparence d'une belle satsuma. Ses principales qualités sont la douceur et la facilité à peler et à manger. La texture moelleuse est réputée unique[11].
-Culture
-Depuis 2010 la production plafonne autour de 500 t par an sur 470 ha[10]. L'arbre est sensible à la chlorose d'automne[12]. Une étude comparative a montré qu'il supporte mieux de stress hydrique quand il est greffé sur yuzu (C. junos)[13]. Il est sensible à l'excès et à la carence en magnésium[14]. Il aurait un comportement asymptomatique en cas d'infection par SDV[15]. 
-Alternance
-Harumi est sensible à l'alternance. On voit sur l'illustration l'effet de l'alternance biennale qui chez harumi provient de l'importante productivité de l'arbre, elle engendre des fruits de taille et de poids hétérogènes. L'éclaircissage est nécessaire pour régulariser la production et la qualité du fruit. Les chercheurs japonais ont déterminé un rapport idéal nombre de fruits/ nombre de feuilles (approximation faite à partir du volume de la canopée corrigé: 20 à 25 fruits/m3)[10].
-Entregreffe
-Plus remarquable est le travail des chercheurs chinois (2022) qui ont montré que la qualité et la précocité de harumi peut être améliorée par un entregreffage (interstock). 
-Le processus consiste à interposer entre le porte-greffe racine et le greffon cultivé un troisième agrume ou entre-greffe (ici au lieu d'une greffe d'harumi sur Hongjv (Citrus reticulata Blanco, CV. Hongjv) harumi est greffé sur une entregreffe ponkan elle-même greffée sur Hongjv). L'entregreffe induit une fructification précoce, augmente la qualité des fruits en régulant positivement les teneurs en saccharose, fructose et glucose, ainsi qu'en diminuant les teneurs en acides organiques et le poids du fruit. Le signal phytohormone est activé par des altérations des niveaux d'expression de 4 gènes liés au métabolisme des sucres, autrement dit l'entregreffe ponkan permet de réguler la qualité et la maturation du tangor harumi[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maturité du fruit d'Harumi est janvier (début de saison, la récolte vise à éviter les dégâts des gels de février car les basses températures affectent le niveau de sucre, il est stocké pour une commercialisation différée), il est commercialisé jusqu'en mars (autrement dit plus tôt que le dekopon son frère) et son poids 180 à 200 g, les fruits moyen on l'optimum sucre/acide l'éclaircissage supprime les fruits petits et les fruits gros. Il a l'apparence d'une belle satsuma. Ses principales qualités sont la douceur et la facilité à peler et à manger. La texture moelleuse est réputée unique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harumi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harumi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Depuis 2010 la production plafonne autour de 500 t par an sur 470 ha. L'arbre est sensible à la chlorose d'automne. Une étude comparative a montré qu'il supporte mieux de stress hydrique quand il est greffé sur yuzu (C. junos). Il est sensible à l'excès et à la carence en magnésium. Il aurait un comportement asymptomatique en cas d'infection par SDV. </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Harumi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harumi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alternance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harumi est sensible à l'alternance. On voit sur l'illustration l'effet de l'alternance biennale qui chez harumi provient de l'importante productivité de l'arbre, elle engendre des fruits de taille et de poids hétérogènes. L'éclaircissage est nécessaire pour régulariser la production et la qualité du fruit. Les chercheurs japonais ont déterminé un rapport idéal nombre de fruits/ nombre de feuilles (approximation faite à partir du volume de la canopée corrigé: 20 à 25 fruits/m3).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Harumi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harumi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Entregreffe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus remarquable est le travail des chercheurs chinois (2022) qui ont montré que la qualité et la précocité de harumi peut être améliorée par un entregreffage (interstock). 
+Le processus consiste à interposer entre le porte-greffe racine et le greffon cultivé un troisième agrume ou entre-greffe (ici au lieu d'une greffe d'harumi sur Hongjv (Citrus reticulata Blanco, CV. Hongjv) harumi est greffé sur une entregreffe ponkan elle-même greffée sur Hongjv). L'entregreffe induit une fructification précoce, augmente la qualité des fruits en régulant positivement les teneurs en saccharose, fructose et glucose, ainsi qu'en diminuant les teneurs en acides organiques et le poids du fruit. Le signal phytohormone est activé par des altérations des niveaux d'expression de 4 gènes liés au métabolisme des sucres, autrement dit l'entregreffe ponkan permet de réguler la qualité et la maturation du tangor harumi.
 </t>
         </is>
       </c>
